--- a/ParentConditions/YellowBlueBlue_v1.xlsx
+++ b/ParentConditions/YellowBlueBlue_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolwell\Desktop\Cognitive Task Battery\2. Go No Go\Emotional Go No-Go Task (Psychopy)\ParentConditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\AGNG\ParentConditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E77ED3-B89E-45A9-8673-15F7A8A97D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BC187-7F48-4B10-AB08-9F01494589B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="1080" windowWidth="25940" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>CondFile</t>
   </si>
@@ -33,22 +33,19 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>Rule: When you see blue image, do not press 'spacebar'.</t>
-  </si>
-  <si>
-    <t>Rule: When you see a yellow image, do not press 'spacebar'.</t>
-  </si>
-  <si>
-    <t>Rule: When you see a blue image, do not press 'spacebar'.</t>
-  </si>
-  <si>
     <t>Conditions/Version_1/YellowHappyStop.xlsx</t>
   </si>
   <si>
     <t>Conditions/Version_1/BlueFearStop.xlsx</t>
   </si>
   <si>
-    <t>Conditions/Version_1/BlueHappyStop.xlsx</t>
+    <t>Rule: When you see a yellow image, \n do not press 'spacebar'.</t>
+  </si>
+  <si>
+    <t>Rule: When you see a blue image, \n do not press 'spacebar'.</t>
+  </si>
+  <si>
+    <t>Conditions/Version_1/BlueScramStop.xlsx</t>
   </si>
 </sst>
 </file>
@@ -369,16 +366,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="65.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,28 +383,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
